--- a/CRDMA/docs/test_cases/packages/CCDP/verification_templates/category_2_CRDMA_CCDP_verification.xlsx
+++ b/CRDMA/docs/test_cases/packages/CCDP/verification_templates/category_2_CRDMA_CCDP_verification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse.Abdul\Documents\Version Control\Git\centralized-cruise-database\CRDMA\docs\test_cases\packages\CCDP\verification_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\centralized-cruise-database\CRDMA\docs\test_cases\packages\CCDP\verification_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
